--- a/Sprint4/Normalizacion_PanelApp_G34.xlsx
+++ b/Sprint4/Normalizacion_PanelApp_G34.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MIS CURSOS\MINTIC 2022\CICLO 3 DESARROLLO\Semana 4\SPRINT 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\GitHub\Repositorio-G34\Repositorio-G34\Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F2BD6A-80D7-441F-A958-A6328FC59336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7379D5-FBAF-41B8-AF72-D452C7D54CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{419FBBCF-0059-4338-B6E9-9C00794015A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{419FBBCF-0059-4338-B6E9-9C00794015A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Normalización" sheetId="1" r:id="rId1"/>
     <sheet name="BD en  3FN" sheetId="2" r:id="rId2"/>
     <sheet name="BD en  4FN" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Tabla</t>
   </si>
@@ -96,13 +98,7 @@
     <t>PresentacionPanela</t>
   </si>
   <si>
-    <t>codigo_prod, nombre_prod,  ciudad_prod, direccion_prod, celular_prod, tipodoc_prod, numdoc_prod, correo_prod</t>
-  </si>
-  <si>
     <t>codigo_pan, descripcion_pan</t>
-  </si>
-  <si>
-    <t>codigo_prod</t>
   </si>
   <si>
     <t>codigo_pan</t>
@@ -116,12 +112,75 @@
   <si>
     <t>codigo_produ</t>
   </si>
+  <si>
+    <t>codigo_pan, descripcion_pan, precio_pan, tipo_pan, unidad_media_pan</t>
+  </si>
+  <si>
+    <t>numdoc_prod</t>
+  </si>
+  <si>
+    <t>cod_departamento_prod &lt;--  Departamentos
+cod_tipodoc_prod &lt;-- Tipo Documento</t>
+  </si>
+  <si>
+    <t>Tablas Nuevas</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Departamento</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: cod_departamento, nombre_departamento
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tipo Documento</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Cod_tipodoc, descripcion_tipodoc</t>
+    </r>
+  </si>
+  <si>
+    <t>nombre_prod,  cod_departamento_prod, direccion_prod, celular_prod, cod_tipodoc_prod, numdoc_prod, correo_prod, clave_prod, foto_doc_prod, autoriza_datos_prod, fecha_registro_prod</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +197,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -265,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -276,28 +344,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -309,12 +356,39 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5093,8 +5167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474E9C6B-30B1-428D-AA46-0DC757132FFD}">
   <dimension ref="A2:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5102,29 +5176,29 @@
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="73.7109375" customWidth="1"/>
     <col min="3" max="3" width="31.28515625" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" customWidth="1"/>
+    <col min="4" max="4" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>16</v>
+      <c r="B4" s="21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5132,104 +5206,112 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>16</v>
+      <c r="B11" s="21" t="s">
+        <v>26</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>18</v>
+      <c r="C11" s="7" t="s">
+        <v>22</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="13"/>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="22" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="16"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="10"/>
+      <c r="B20" s="13"/>
     </row>
-    <row r="21" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5272,34 +5354,34 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="B3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="B4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="B5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="B6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="B7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="2:8" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -5309,34 +5391,34 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="B11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="B12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="B13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="B14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D16" s="5" t="s">
@@ -5368,7 +5450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50CEC73-5DFE-45DE-9531-56726A029CA5}">
   <dimension ref="C3:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22:D24"/>
     </sheetView>
   </sheetViews>
@@ -5399,49 +5481,49 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="3:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="O4" s="6"/>
+      <c r="C4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="O4" s="17"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="O5" s="7"/>
+      <c r="C5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="O5" s="18"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="O6" s="7"/>
+      <c r="C6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="O6" s="18"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="O7" s="7"/>
+      <c r="C7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="O7" s="18"/>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="C8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="O8" s="19"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="E11" s="2"/>
@@ -5452,44 +5534,44 @@
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="E12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="O12" s="6"/>
+      <c r="E12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="O12" s="17"/>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="E13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="E13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="O13" s="18"/>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="E14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="E14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="O14" s="18"/>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="E15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="E15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="O15" s="18"/>
     </row>
     <row r="16" spans="3:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="O16" s="8"/>
+      <c r="E16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="O16" s="19"/>
     </row>
     <row r="19" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G19" s="5" t="s">
